--- a/AEF_files/202504292100---AEF_CMA6_second_iteration - Guyana 2022.syntax_checked.xlsx
+++ b/AEF_files/202504292100---AEF_CMA6_second_iteration - Guyana 2022.syntax_checked.xlsx
@@ -689,6 +689,26 @@
     <author>AEFSyntaxCheck</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AEFSyntaxCheck</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
     <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <t>Cell content error: The value provided for 'Version' must conform to X.Y.</t>
@@ -703,12 +723,17 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>AEFSyntaxCheck</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
     <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <t>Cell content error: The value provided for 'Date of authorization must be in the format dd/mm/yyyy</t>
@@ -738,12 +763,17 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>AEFSyntaxCheck</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Cell content error: The value provided for 'Action date must be in the format dd/mm/yyyy</t>
@@ -773,12 +803,17 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>AEFSyntaxCheck</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
     <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <t>Cell content error: The value provided for 'First transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
@@ -793,12 +828,17 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>AEFSyntaxCheck</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
     <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <t>Cell content error: The value provided for 'Date of the authorization must be in the format dd/mm/yyyy</t>
@@ -1212,7 +1252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C104"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A82" sqref="A82:XFD82"/>
@@ -1230,6 +1270,7 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="n"/>
       <c r="B1" s="15" t="inlineStr">
         <is>
           <t> </t>
@@ -2304,6 +2345,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -2313,7 +2355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:C13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -2327,6 +2369,10 @@
     <col width="8.83203125" customWidth="1" style="1" min="4" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
     <row r="3" ht="16" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="inlineStr">
         <is>
@@ -2453,7 +2499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:U14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
@@ -2483,6 +2529,10 @@
     <col width="8.83203125" customWidth="1" style="15" min="22" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="B3" s="17" t="n"/>
     </row>
@@ -2866,7 +2916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:AH13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH8" sqref="AH8"/>
@@ -2908,6 +2958,10 @@
     <col width="8.83203125" customWidth="1" style="15" min="33" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="B3" s="26" t="inlineStr">
         <is>
@@ -3504,7 +3558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:U33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -3534,6 +3588,10 @@
     <col width="8.83203125" customWidth="1" style="15" min="22" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
     <row r="3" ht="16" customHeight="1" thickBot="1">
       <c r="B3" s="97" t="inlineStr">
         <is>
@@ -4248,7 +4306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C8:K13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
@@ -4267,6 +4325,15 @@
     <col width="9.1640625" customWidth="1" style="15" min="11" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
     <row r="8" ht="20.25" customHeight="1">
       <c r="C8" s="17" t="inlineStr">
         <is>
@@ -4376,7 +4443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4392,333 +4459,421 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Structure check</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Correct number of worksheets in workbook.</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correct number of worksheets in workbook</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Index</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>All worksheets found in workbook.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Summary information</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Summary information: Table 1: Submission</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Table 1 Submission</t>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Table 2 Authorizations</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Summary information: Table 2: Authorizations</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Table 3 Actions</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table 4 Holdings</t>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Summary information: Table 3: Actions</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Table 5 Auth. entities</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Summary information: Table 4: Holdings</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>All workseets found in workbook.</t>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Summary information</t>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Table 1 Submission</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Table 1 Submission</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Table 2 Authorizations</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Table 3 Actions</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Table 4 Holdings</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Table 5 Auth. entities</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 1 Submission'</t>
-        </is>
-      </c>
-    </row>
     <row r="20">
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Version' must conform to X.Y.</t>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
+          <t>Table 5 Auth. entities</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Date of submission must be in the format dd/mm/yyyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 2 Authorizations'</t>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Date of authorization must be in the format dd/mm/yyyy</t>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Content check</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
+          <t>Table 1 Submission</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Activity type(s)' can only contain alphanumeric, and space characters.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Version' must conform to X.Y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Purposes for authorization' must be one of 'NDC', 'OIMP', 'IMP', 'OP', 'NDC and OIMP', 'NDC and IMP', or 'NDC and OP'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Authorized Party(ies) ID' must a comma-separated list of ISO 3166 alpha-3 codes.</t>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Date of submission must be in the format dd/mm/yyyy</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
+          <t>Table 2 Authorizations</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Date of authorization must be in the format dd/mm/yyyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Activity type(s)' can only contain alphanumeric, and space characters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Purposes for authorization' must be one of 'NDC', 'OIMP', 'IMP', 'OP', 'NDC and OIMP', 'NDC and IMP', or 'NDC and OP'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Authorized Party(ies) ID' must a comma-separated list of ISO 3166 alpha-3 codes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Cell content error: The value provided for 'Authorized timeframe' must be empty of a year range (dddd - dddd)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 3 Actions'</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Action date must be in the format dd/mm/yyyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Action type'' must be one of 'Acquistion', 'Transfer', 'Use', 'Cancellation', 'First transfer'</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'First transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Cell content error: The value provided for 'Party ITMO registry ID' must be a Party ID followed by two digits</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
+          <t>Table 3 Actions</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Action date must be in the format dd/mm/yyyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Action type'' must be one of 'Acquistion', 'Transfer', 'Use', 'Cancellation', 'First transfer'</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'First transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cell content error: The value provided for 'Party ITMO registry ID' must be a Party ID followed by two digits</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Cell content error: The value provided for 'Transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 4 Holdings'</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr">
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Table 4 Holdings</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Cell content error: The value provided for 'First transferring participating Party ID' must an ISO 3166 alpha-3 country code.</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="C36" t="inlineStr">
+    <row r="41">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Cell content error: The value provided for 'Party ITMO registry ID' must be a Party ID followed by two digits</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 5 Auth. entities'</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="inlineStr">
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Table 5 Auth. entities</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Cell content error: The value provided for 'Date of the authorization must be in the format dd/mm/yyyy</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Syntax check found errors.</t>
         </is>
@@ -4726,21 +4881,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C27" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C31" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C32" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C33" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D25" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D26" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D28" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D30" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D31" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D32" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D34" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D35" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D36" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D37" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D38" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D40" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D41" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D43" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5058,17 +5222,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3AC1BC3-2438-405E-8E7C-ED014B42EE1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6BD7E3D-5B29-4671-8488-B661A5C57657}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52906C02-994B-43FB-81AB-7C47F732FF3F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B9C530-E08D-46BD-BFDA-8647258EA7DC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B534FC-48F0-4A78-807D-A8E39F093B1F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCC6892-2B93-453D-A49E-282E831C2929}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACE346A0-556D-4730-81AD-8AE33EED4946}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3ED01C-7C92-4DCA-940D-C994E0762D5E}"/>
 </file>
--- a/AEF_files/202504292100---AEF_CMA6_second_iteration - Guyana 2022.syntax_checked.xlsx
+++ b/AEF_files/202504292100---AEF_CMA6_second_iteration - Guyana 2022.syntax_checked.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -193,6 +193,16 @@
       <color theme="1"/>
       <sz val="10"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <i val="1"/>
+    </font>
+    <font>
+      <color rgb="000000FF"/>
+      <u val="single"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -341,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -606,6 +616,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4452,14 +4465,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="104" t="inlineStr">
         <is>
           <t>202504292100---AEF_CMA6_second_iteration - Guyana 2022.xlsx</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>Structure check</t>
         </is>
@@ -4487,7 +4500,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4506,7 +4519,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4525,7 +4538,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4544,7 +4557,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4563,7 +4576,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4582,7 +4595,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4601,7 +4614,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4620,7 +4633,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4639,7 +4652,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4651,7 +4664,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="105" t="inlineStr">
         <is>
           <t>Content check</t>
         </is>
@@ -4665,7 +4678,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4677,7 +4690,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4696,7 +4709,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4708,7 +4721,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4720,7 +4733,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4732,7 +4745,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4744,7 +4757,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4763,7 +4776,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4775,7 +4788,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4787,7 +4800,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4799,7 +4812,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4811,7 +4824,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4830,7 +4843,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4842,7 +4855,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4861,7 +4874,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="106" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -5222,17 +5235,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6BD7E3D-5B29-4671-8488-B661A5C57657}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655C14C9-D93A-4470-8C18-FD9CBDA4D5FB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B9C530-E08D-46BD-BFDA-8647258EA7DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206A9068-2B3D-4EE9-8F41-36042C0FC6BE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCC6892-2B93-453D-A49E-282E831C2929}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{561EA554-145E-4230-A2AE-3AA17F83263D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3ED01C-7C92-4DCA-940D-C994E0762D5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D5ABA3A-5DBA-408F-9667-97AECE522CEE}"/>
 </file>